--- a/spam_base.xlsx
+++ b/spam_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="spam_base" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Климовичу Н.Н.</t>
   </si>
   <si>
-    <t>м</t>
-  </si>
-  <si>
     <t>Николай Николаевич</t>
   </si>
   <si>
@@ -52,10 +49,13 @@
     <t>email</t>
   </si>
   <si>
-    <t>Куйбышевск</t>
-  </si>
-  <si>
     <t>info@azazazazaza.ru</t>
+  </si>
+  <si>
+    <t>г. Омск 22.03.2017 – 24.03.2017 г.</t>
+  </si>
+  <si>
+    <t>Уважаемый</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,9 +543,9 @@
     <col min="1" max="1" width="39.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="35" style="13" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="13" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="13" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
@@ -553,25 +553,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
